--- a/data/RawData/ObsData/2009-2022/2017/22-11-2017.xlsx
+++ b/data/RawData/ObsData/2009-2022/2017/22-11-2017.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\Groups\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A21D272-F615-4040-9737-1088D7ABAFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED41C3-484B-41C0-9D92-97219D494631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$Q$142</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="387">
   <si>
     <t>Grupos Equipe Meta-22-NOVEMBRO-2017</t>
   </si>
@@ -1182,6 +1185,12 @@
   </si>
   <si>
     <t>não capt.</t>
+  </si>
+  <si>
+    <t>07/16</t>
+  </si>
+  <si>
+    <t>05/17</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2071,6 +2080,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2482,7 +2497,7 @@
   <dimension ref="A1:Q142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+      <selection activeCell="M149" sqref="M149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2545,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2549,7 +2564,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2572,7 +2587,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="16"/>
     </row>
-    <row r="4" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
@@ -2813,7 +2828,7 @@
       </c>
       <c r="Q8" s="32"/>
     </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34">
         <v>1377</v>
@@ -2858,7 +2873,7 @@
       </c>
       <c r="Q9" s="38"/>
     </row>
-    <row r="10" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="34">
         <v>1378</v>
@@ -2889,7 +2904,7 @@
       <c r="P10" s="40"/>
       <c r="Q10" s="41"/>
     </row>
-    <row r="11" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="34">
         <v>1385</v>
@@ -3024,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="47">
         <v>1388</v>
@@ -3049,7 +3064,7 @@
       <c r="P14" s="50"/>
       <c r="Q14" s="51"/>
     </row>
-    <row r="15" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -3068,7 +3083,7 @@
       <c r="P15" s="40"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>54</v>
       </c>
@@ -3237,7 +3252,7 @@
       <c r="P19" s="34"/>
       <c r="Q19" s="35"/>
     </row>
-    <row r="20" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="34">
         <v>1383</v>
@@ -3444,7 +3459,7 @@
       </c>
       <c r="Q25" s="35"/>
     </row>
-    <row r="26" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>1</v>
       </c>
@@ -3491,7 +3506,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="98" t="s">
         <v>88</v>
       </c>
@@ -3526,7 +3541,7 @@
       <c r="P27" s="40"/>
       <c r="Q27" s="41"/>
     </row>
-    <row r="28" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="31" t="s">
         <v>92</v>
@@ -3569,7 +3584,7 @@
         <v>4822</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
         <v>97</v>
@@ -3594,7 +3609,7 @@
       <c r="P29" s="40"/>
       <c r="Q29" s="41"/>
     </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="s">
         <v>1</v>
       </c>
@@ -3645,7 +3660,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="52"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -3676,7 +3691,7 @@
       </c>
       <c r="Q31" s="48"/>
     </row>
-    <row r="32" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>105</v>
       </c>
@@ -3711,7 +3726,7 @@
       <c r="P32" s="40"/>
       <c r="Q32" s="41"/>
     </row>
-    <row r="33" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="34" t="s">
         <v>108</v>
@@ -3837,8 +3852,8 @@
       <c r="O35" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="P35" s="31" t="s">
-        <v>119</v>
+      <c r="P35" s="99" t="s">
+        <v>385</v>
       </c>
       <c r="Q35" s="32" t="s">
         <v>122</v>
@@ -3882,14 +3897,14 @@
       <c r="O36" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="31" t="s">
-        <v>125</v>
+      <c r="P36" s="99" t="s">
+        <v>386</v>
       </c>
       <c r="Q36" s="32" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="34" t="s">
         <v>127</v>
@@ -3927,14 +3942,14 @@
       <c r="O37" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="P37" s="37" t="s">
-        <v>130</v>
+      <c r="P37" s="100" t="s">
+        <v>386</v>
       </c>
       <c r="Q37" s="38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>131</v>
@@ -3965,7 +3980,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="41"/>
     </row>
-    <row r="39" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>133</v>
@@ -4250,7 +4265,7 @@
       </c>
       <c r="Q45" s="35"/>
     </row>
-    <row r="46" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46"/>
       <c r="B46" s="47" t="s">
         <v>161</v>
@@ -4289,7 +4304,7 @@
       </c>
       <c r="Q46" s="35"/>
     </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="52"/>
       <c r="B47" s="40"/>
       <c r="C47" s="40"/>
@@ -4322,7 +4337,7 @@
       </c>
       <c r="Q47" s="35"/>
     </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="72" t="s">
         <v>167</v>
       </c>
@@ -4443,7 +4458,7 @@
       </c>
       <c r="Q50" s="35"/>
     </row>
-    <row r="51" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
       <c r="B51" s="34" t="s">
         <v>178</v>
@@ -4480,7 +4495,7 @@
       </c>
       <c r="Q51" s="48"/>
     </row>
-    <row r="52" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="34" t="s">
         <v>181</v>
@@ -4511,7 +4526,7 @@
       <c r="P52" s="79"/>
       <c r="Q52" s="80"/>
     </row>
-    <row r="53" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="34" t="s">
         <v>183</v>
@@ -4886,7 +4901,7 @@
       </c>
       <c r="Q61" s="35"/>
     </row>
-    <row r="62" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="82"/>
       <c r="B62" s="13" t="s">
         <v>218</v>
@@ -4931,7 +4946,7 @@
       </c>
       <c r="Q62" s="48"/>
     </row>
-    <row r="63" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -4950,7 +4965,7 @@
       <c r="P63" s="50"/>
       <c r="Q63" s="51"/>
     </row>
-    <row r="64" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="84"/>
       <c r="B64" s="10"/>
       <c r="C64" s="85"/>
@@ -4969,7 +4984,7 @@
       <c r="P64" s="22"/>
       <c r="Q64" s="23"/>
     </row>
-    <row r="65" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="72" t="s">
         <v>221</v>
       </c>
@@ -4992,7 +5007,7 @@
       <c r="P65" s="13"/>
       <c r="Q65" s="16"/>
     </row>
-    <row r="66" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17" t="s">
         <v>3</v>
       </c>
@@ -5250,7 +5265,7 @@
       </c>
       <c r="Q71" s="16"/>
     </row>
-    <row r="72" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="30"/>
       <c r="B72" s="31" t="s">
         <v>246</v>
@@ -5281,7 +5296,7 @@
       <c r="P72" s="47"/>
       <c r="Q72" s="48"/>
     </row>
-    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="36"/>
       <c r="B73" s="37" t="s">
         <v>250</v>
@@ -5312,7 +5327,7 @@
       <c r="P73" s="79"/>
       <c r="Q73" s="80"/>
     </row>
-    <row r="74" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="44"/>
       <c r="B74" s="79"/>
       <c r="C74" s="79"/>
@@ -5345,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="72" t="s">
         <v>254</v>
       </c>
@@ -5607,7 +5622,7 @@
       </c>
       <c r="Q80" s="35"/>
     </row>
-    <row r="81" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="36"/>
       <c r="B81" s="37" t="s">
         <v>286</v>
@@ -5683,7 +5698,7 @@
       </c>
       <c r="Q82" s="35"/>
     </row>
-    <row r="83" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="88" t="s">
         <v>296</v>
       </c>
@@ -5757,7 +5772,7 @@
       </c>
       <c r="Q84" s="35"/>
     </row>
-    <row r="85" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="34" t="s">
         <v>304</v>
@@ -5800,7 +5815,7 @@
       </c>
       <c r="Q85" s="48"/>
     </row>
-    <row r="86" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="34" t="s">
         <v>307</v>
@@ -6129,7 +6144,7 @@
       </c>
       <c r="Q94" s="35"/>
     </row>
-    <row r="95" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="46"/>
       <c r="B95" s="47" t="s">
         <v>329</v>
@@ -6168,7 +6183,7 @@
       </c>
       <c r="Q95" s="35"/>
     </row>
-    <row r="96" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="52"/>
       <c r="B96" s="40"/>
       <c r="C96" s="40"/>
@@ -6281,7 +6296,7 @@
       </c>
       <c r="Q98" s="35"/>
     </row>
-    <row r="99" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>1</v>
       </c>
@@ -6328,7 +6343,7 @@
       </c>
       <c r="Q99" s="48"/>
     </row>
-    <row r="100" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="33"/>
       <c r="B100" s="34" t="s">
         <v>344</v>
@@ -6431,7 +6446,7 @@
       </c>
       <c r="Q102" s="35"/>
     </row>
-    <row r="103" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="46"/>
       <c r="B103" s="47" t="s">
         <v>351</v>
@@ -6470,7 +6485,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="44"/>
       <c r="B104" s="79"/>
       <c r="C104" s="79"/>
@@ -6959,7 +6974,7 @@
       <c r="P117" s="34"/>
       <c r="Q117" s="35"/>
     </row>
-    <row r="118" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="46"/>
       <c r="B118" s="47" t="s">
         <v>383</v>
@@ -7123,7 +7138,7 @@
       <c r="P125" s="93"/>
       <c r="Q125" s="94"/>
     </row>
-    <row r="126" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="95"/>
       <c r="B126" s="96"/>
       <c r="C126" s="96"/>
@@ -7159,6 +7174,7 @@
     <row r="141" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="142" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:Q142" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data/RawData/ObsData/2009-2022/2017/22-11-2017.xlsx
+++ b/data/RawData/ObsData/2009-2022/2017/22-11-2017.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\GoldenLionTamarinsBrazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2009-2022\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED41C3-484B-41C0-9D92-97219D494631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE5A387-7275-4879-95E6-29834071F691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="386">
   <si>
     <t>Grupos Equipe Meta-22-NOVEMBRO-2017</t>
   </si>
@@ -1182,9 +1182,6 @@
   </si>
   <si>
     <t>MP200</t>
-  </si>
-  <si>
-    <t>não capt.</t>
   </si>
   <si>
     <t>07/16</t>
@@ -2496,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M149" sqref="M149"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110:H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3853,7 +3850,7 @@
         <v>14</v>
       </c>
       <c r="P35" s="99" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q35" s="32" t="s">
         <v>122</v>
@@ -3898,7 +3895,7 @@
         <v>36</v>
       </c>
       <c r="P36" s="99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q36" s="32" t="s">
         <v>126</v>
@@ -3943,7 +3940,7 @@
         <v>36</v>
       </c>
       <c r="P37" s="100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q37" s="38" t="s">
         <v>126</v>
@@ -6726,9 +6723,7 @@
       <c r="G110" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H110" s="30" t="s">
-        <v>384</v>
-      </c>
+      <c r="H110" s="30"/>
       <c r="I110" s="39"/>
       <c r="J110" s="33"/>
       <c r="K110" s="34" t="s">
@@ -6764,9 +6759,7 @@
       <c r="G111" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H111" s="30" t="s">
-        <v>384</v>
-      </c>
+      <c r="H111" s="30"/>
       <c r="I111" s="39"/>
       <c r="J111" s="33" t="s">
         <v>1</v>
@@ -6804,9 +6797,7 @@
       <c r="G112" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H112" s="30" t="s">
-        <v>384</v>
-      </c>
+      <c r="H112" s="30"/>
       <c r="I112" s="39"/>
       <c r="J112" s="46"/>
       <c r="K112" s="47"/>
@@ -6836,9 +6827,7 @@
       <c r="G113" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H113" s="30" t="s">
-        <v>384</v>
-      </c>
+      <c r="H113" s="30"/>
       <c r="I113" s="34"/>
       <c r="J113" s="79"/>
       <c r="K113" s="79"/>
@@ -6868,9 +6857,7 @@
       <c r="G114" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="H114" s="30" t="s">
-        <v>384</v>
-      </c>
+      <c r="H114" s="30"/>
       <c r="I114" s="39"/>
       <c r="J114" s="34"/>
       <c r="K114" s="34"/>
